--- a/Financials/Yearly/RCI_YR_FIN.xlsx
+++ b/Financials/Yearly/RCI_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ED116E-6476-4B06-BCAA-1D18F4C9A00E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCI" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>RCI</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10865100</v>
+        <v>11234600</v>
       </c>
       <c r="E8" s="3">
-        <v>10526300</v>
+        <v>10693600</v>
       </c>
       <c r="F8" s="3">
-        <v>10305000</v>
+        <v>10197200</v>
       </c>
       <c r="G8" s="3">
-        <v>9871800</v>
+        <v>9982800</v>
       </c>
       <c r="H8" s="3">
-        <v>9761100</v>
+        <v>9563100</v>
       </c>
       <c r="I8" s="3">
-        <v>9592100</v>
+        <v>9455900</v>
       </c>
       <c r="J8" s="3">
+        <v>9292200</v>
+      </c>
+      <c r="K8" s="3">
         <v>9484600</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5151000</v>
+        <v>6782000</v>
       </c>
       <c r="E9" s="3">
-        <v>5068800</v>
+        <v>6598900</v>
       </c>
       <c r="F9" s="3">
-        <v>4964300</v>
+        <v>6453000</v>
       </c>
       <c r="G9" s="3">
-        <v>4554100</v>
+        <v>6278900</v>
       </c>
       <c r="H9" s="3">
-        <v>4499500</v>
+        <v>5855400</v>
       </c>
       <c r="I9" s="3">
-        <v>4544800</v>
+        <v>5802600</v>
       </c>
       <c r="J9" s="3">
+        <v>5752000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1117000</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5714100</v>
+        <v>4452600</v>
       </c>
       <c r="E10" s="3">
-        <v>5457500</v>
+        <v>4094600</v>
       </c>
       <c r="F10" s="3">
-        <v>5340700</v>
+        <v>3744100</v>
       </c>
       <c r="G10" s="3">
-        <v>5317700</v>
+        <v>3703900</v>
       </c>
       <c r="H10" s="3">
-        <v>5261600</v>
+        <v>3707700</v>
       </c>
       <c r="I10" s="3">
-        <v>5047300</v>
+        <v>3653300</v>
       </c>
       <c r="J10" s="3">
+        <v>3540200</v>
+      </c>
+      <c r="K10" s="3">
         <v>8367600</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +846,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +873,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>116800</v>
+        <v>177100</v>
       </c>
       <c r="E14" s="3">
-        <v>494700</v>
+        <v>113100</v>
       </c>
       <c r="F14" s="3">
+        <v>479300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>115400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>150300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>63300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>196500</v>
+      </c>
+      <c r="K14" s="3">
         <v>119100</v>
       </c>
-      <c r="G14" s="3">
-        <v>155200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>65300</v>
-      </c>
-      <c r="I14" s="3">
-        <v>202800</v>
-      </c>
-      <c r="J14" s="3">
-        <v>119100</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1645500</v>
+        <v>1645400</v>
       </c>
       <c r="E15" s="3">
-        <v>1748500</v>
+        <v>1594100</v>
       </c>
       <c r="F15" s="3">
-        <v>1749300</v>
+        <v>1693800</v>
       </c>
       <c r="G15" s="3">
-        <v>1647100</v>
+        <v>1694600</v>
       </c>
       <c r="H15" s="3">
-        <v>1458100</v>
+        <v>1595600</v>
       </c>
       <c r="I15" s="3">
-        <v>1397400</v>
+        <v>1412500</v>
       </c>
       <c r="J15" s="3">
+        <v>1353700</v>
+      </c>
+      <c r="K15" s="3">
         <v>1339000</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8504300</v>
+        <v>8592600</v>
       </c>
       <c r="E17" s="3">
-        <v>8904600</v>
+        <v>8269700</v>
       </c>
       <c r="F17" s="3">
-        <v>8264600</v>
+        <v>8626100</v>
       </c>
       <c r="G17" s="3">
-        <v>7846700</v>
+        <v>8006200</v>
       </c>
       <c r="H17" s="3">
-        <v>7513300</v>
+        <v>7601400</v>
       </c>
       <c r="I17" s="3">
-        <v>7467200</v>
+        <v>7278400</v>
       </c>
       <c r="J17" s="3">
+        <v>7233700</v>
+      </c>
+      <c r="K17" s="3">
         <v>7359600</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2360800</v>
+        <v>2641900</v>
       </c>
       <c r="E18" s="3">
-        <v>1621700</v>
+        <v>2423900</v>
       </c>
       <c r="F18" s="3">
-        <v>2040400</v>
+        <v>1571000</v>
       </c>
       <c r="G18" s="3">
-        <v>2025100</v>
+        <v>1976600</v>
       </c>
       <c r="H18" s="3">
-        <v>2247800</v>
+        <v>1961700</v>
       </c>
       <c r="I18" s="3">
+        <v>2177600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2058500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2124900</v>
       </c>
-      <c r="J18" s="3">
-        <v>2124900</v>
-      </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3800</v>
+        <v>-32700</v>
       </c>
       <c r="E20" s="3">
-        <v>-162900</v>
+        <v>-3700</v>
       </c>
       <c r="F20" s="3">
-        <v>-70700</v>
+        <v>-157800</v>
       </c>
       <c r="G20" s="3">
-        <v>-16100</v>
+        <v>-68500</v>
       </c>
       <c r="H20" s="3">
-        <v>46100</v>
+        <v>-15600</v>
       </c>
       <c r="I20" s="3">
-        <v>192800</v>
+        <v>44700</v>
       </c>
       <c r="J20" s="3">
+        <v>186800</v>
+      </c>
+      <c r="K20" s="3">
         <v>12300</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4059700</v>
+        <v>4301400</v>
       </c>
       <c r="E21" s="3">
-        <v>3270500</v>
+        <v>4065300</v>
       </c>
       <c r="F21" s="3">
-        <v>3794500</v>
+        <v>3163600</v>
       </c>
       <c r="G21" s="3">
-        <v>3714800</v>
+        <v>3671200</v>
       </c>
       <c r="H21" s="3">
-        <v>3799100</v>
+        <v>3594300</v>
       </c>
       <c r="I21" s="3">
-        <v>3778200</v>
+        <v>3676500</v>
       </c>
       <c r="J21" s="3">
+        <v>3656300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3546700</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>554700</v>
+        <v>512800</v>
       </c>
       <c r="E22" s="3">
-        <v>568500</v>
+        <v>537300</v>
       </c>
       <c r="F22" s="3">
-        <v>572300</v>
+        <v>550700</v>
       </c>
       <c r="G22" s="3">
-        <v>590000</v>
+        <v>554400</v>
       </c>
       <c r="H22" s="3">
-        <v>553900</v>
+        <v>571600</v>
       </c>
       <c r="I22" s="3">
-        <v>516300</v>
+        <v>536600</v>
       </c>
       <c r="J22" s="3">
+        <v>500100</v>
+      </c>
+      <c r="K22" s="3">
         <v>497000</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1802300</v>
+        <v>2096400</v>
       </c>
       <c r="E23" s="3">
-        <v>890400</v>
+        <v>1882900</v>
       </c>
       <c r="F23" s="3">
-        <v>1397400</v>
+        <v>862500</v>
       </c>
       <c r="G23" s="3">
-        <v>1418900</v>
+        <v>1353700</v>
       </c>
       <c r="H23" s="3">
-        <v>1740000</v>
+        <v>1374600</v>
       </c>
       <c r="I23" s="3">
-        <v>1801500</v>
+        <v>1685600</v>
       </c>
       <c r="J23" s="3">
+        <v>1745200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1640200</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>487800</v>
+        <v>564100</v>
       </c>
       <c r="E24" s="3">
-        <v>248900</v>
+        <v>509800</v>
       </c>
       <c r="F24" s="3">
-        <v>366400</v>
+        <v>241100</v>
       </c>
       <c r="G24" s="3">
-        <v>388700</v>
+        <v>355000</v>
       </c>
       <c r="H24" s="3">
-        <v>457900</v>
+        <v>376600</v>
       </c>
       <c r="I24" s="3">
-        <v>476300</v>
+        <v>443500</v>
       </c>
       <c r="J24" s="3">
+        <v>461400</v>
+      </c>
+      <c r="K24" s="3">
         <v>418700</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1314400</v>
+        <v>1532300</v>
       </c>
       <c r="E26" s="3">
-        <v>641500</v>
+        <v>1373100</v>
       </c>
       <c r="F26" s="3">
-        <v>1031000</v>
+        <v>621400</v>
       </c>
       <c r="G26" s="3">
-        <v>1030200</v>
+        <v>998700</v>
       </c>
       <c r="H26" s="3">
-        <v>1282200</v>
+        <v>998000</v>
       </c>
       <c r="I26" s="3">
-        <v>1325200</v>
+        <v>1242100</v>
       </c>
       <c r="J26" s="3">
+        <v>1283800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1221500</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1314400</v>
+        <v>1532300</v>
       </c>
       <c r="E27" s="3">
-        <v>641500</v>
+        <v>1373100</v>
       </c>
       <c r="F27" s="3">
-        <v>1031000</v>
+        <v>621400</v>
       </c>
       <c r="G27" s="3">
-        <v>1030200</v>
+        <v>998700</v>
       </c>
       <c r="H27" s="3">
-        <v>1282200</v>
+        <v>998000</v>
       </c>
       <c r="I27" s="3">
-        <v>1325200</v>
+        <v>1242100</v>
       </c>
       <c r="J27" s="3">
+        <v>1283800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1221500</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1318,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1244,18 +1339,21 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>-24600</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="K29" s="3">
         <v>-20700</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3800</v>
+        <v>32700</v>
       </c>
       <c r="E32" s="3">
-        <v>162900</v>
+        <v>3700</v>
       </c>
       <c r="F32" s="3">
-        <v>70700</v>
+        <v>157800</v>
       </c>
       <c r="G32" s="3">
-        <v>16100</v>
+        <v>68500</v>
       </c>
       <c r="H32" s="3">
-        <v>-46100</v>
+        <v>15600</v>
       </c>
       <c r="I32" s="3">
-        <v>-192800</v>
+        <v>-44700</v>
       </c>
       <c r="J32" s="3">
+        <v>-186800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12300</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1314400</v>
+        <v>1532300</v>
       </c>
       <c r="E33" s="3">
-        <v>641500</v>
+        <v>1373100</v>
       </c>
       <c r="F33" s="3">
-        <v>1031000</v>
+        <v>621400</v>
       </c>
       <c r="G33" s="3">
-        <v>1030200</v>
+        <v>998700</v>
       </c>
       <c r="H33" s="3">
-        <v>1282200</v>
+        <v>998000</v>
       </c>
       <c r="I33" s="3">
-        <v>1300600</v>
+        <v>1242100</v>
       </c>
       <c r="J33" s="3">
+        <v>1259900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1200700</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1314400</v>
+        <v>1532300</v>
       </c>
       <c r="E35" s="3">
-        <v>641500</v>
+        <v>1373100</v>
       </c>
       <c r="F35" s="3">
-        <v>1031000</v>
+        <v>621400</v>
       </c>
       <c r="G35" s="3">
-        <v>1030200</v>
+        <v>998700</v>
       </c>
       <c r="H35" s="3">
-        <v>1282200</v>
+        <v>998000</v>
       </c>
       <c r="I35" s="3">
-        <v>1300600</v>
+        <v>1242100</v>
       </c>
       <c r="J35" s="3">
+        <v>1259900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1200700</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1594,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
+      <c r="D41" s="3">
+        <v>301400</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>135200</v>
+        <v>8200</v>
       </c>
       <c r="H41" s="3">
-        <v>1767700</v>
+        <v>131000</v>
       </c>
       <c r="I41" s="3">
-        <v>163600</v>
+        <v>1712400</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+        <v>158500</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,198 +1651,222 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3131300</v>
+        <v>2464100</v>
       </c>
       <c r="E43" s="3">
-        <v>1497300</v>
+        <v>2124700</v>
       </c>
       <c r="F43" s="3">
-        <v>1376700</v>
+        <v>3435300</v>
       </c>
       <c r="G43" s="3">
-        <v>1222300</v>
+        <v>1333600</v>
       </c>
       <c r="H43" s="3">
-        <v>1177700</v>
+        <v>1184000</v>
       </c>
       <c r="I43" s="3">
-        <v>1210000</v>
+        <v>1140900</v>
       </c>
       <c r="J43" s="3">
+        <v>1172100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1209200</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>334200</v>
+        <v>346800</v>
       </c>
       <c r="E44" s="3">
-        <v>242000</v>
+        <v>556700</v>
       </c>
       <c r="F44" s="3">
-        <v>244300</v>
+        <v>336400</v>
       </c>
       <c r="G44" s="3">
-        <v>192800</v>
+        <v>236700</v>
       </c>
       <c r="H44" s="3">
-        <v>212000</v>
+        <v>186800</v>
       </c>
       <c r="I44" s="3">
-        <v>225100</v>
+        <v>205400</v>
       </c>
       <c r="J44" s="3">
+        <v>218100</v>
+      </c>
+      <c r="K44" s="3">
         <v>158300</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1271400</v>
+        <v>525400</v>
       </c>
       <c r="E45" s="3">
-        <v>235100</v>
+        <v>621400</v>
       </c>
       <c r="F45" s="3">
-        <v>384900</v>
+        <v>378100</v>
       </c>
       <c r="G45" s="3">
-        <v>251200</v>
+        <v>372800</v>
       </c>
       <c r="H45" s="3">
-        <v>162100</v>
+        <v>243400</v>
       </c>
       <c r="I45" s="3">
-        <v>107600</v>
+        <v>157000</v>
       </c>
       <c r="J45" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K45" s="3">
         <v>106000</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3168900</v>
+        <v>3637700</v>
       </c>
       <c r="E46" s="3">
-        <v>1974400</v>
+        <v>3069900</v>
       </c>
       <c r="F46" s="3">
-        <v>2014300</v>
+        <v>2699200</v>
       </c>
       <c r="G46" s="3">
-        <v>1801500</v>
+        <v>1951300</v>
       </c>
       <c r="H46" s="3">
-        <v>3319500</v>
+        <v>1745200</v>
       </c>
       <c r="I46" s="3">
-        <v>1706200</v>
+        <v>3215700</v>
       </c>
       <c r="J46" s="3">
+        <v>1652900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1468900</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1967400</v>
+        <v>1986300</v>
       </c>
       <c r="E47" s="3">
-        <v>1670100</v>
+        <v>2213300</v>
       </c>
       <c r="F47" s="3">
-        <v>1744700</v>
+        <v>3499300</v>
       </c>
       <c r="G47" s="3">
-        <v>1458100</v>
+        <v>1690100</v>
       </c>
       <c r="H47" s="3">
-        <v>1164600</v>
+        <v>1412500</v>
       </c>
       <c r="I47" s="3">
-        <v>1154600</v>
+        <v>1128200</v>
       </c>
       <c r="J47" s="3">
+        <v>1118500</v>
+      </c>
+      <c r="K47" s="3">
         <v>862700</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17120800</v>
+        <v>8766800</v>
       </c>
       <c r="E48" s="3">
-        <v>8257700</v>
+        <v>8292700</v>
       </c>
       <c r="F48" s="3">
-        <v>8448200</v>
+        <v>7999500</v>
       </c>
       <c r="G48" s="3">
-        <v>8185500</v>
+        <v>8184100</v>
       </c>
       <c r="H48" s="3">
-        <v>7878200</v>
+        <v>7929600</v>
       </c>
       <c r="I48" s="3">
-        <v>7356600</v>
+        <v>7631900</v>
       </c>
       <c r="J48" s="3">
+        <v>7126600</v>
+      </c>
+      <c r="K48" s="3">
         <v>15063500</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17130000</v>
+        <v>8268200</v>
       </c>
       <c r="E49" s="3">
-        <v>8477400</v>
+        <v>8297200</v>
       </c>
       <c r="F49" s="3">
-        <v>13493200</v>
+        <v>8212400</v>
       </c>
       <c r="G49" s="3">
-        <v>8236200</v>
+        <v>13071300</v>
       </c>
       <c r="H49" s="3">
-        <v>5348400</v>
+        <v>7978700</v>
       </c>
       <c r="I49" s="3">
-        <v>4755300</v>
+        <v>5181200</v>
       </c>
       <c r="J49" s="3">
+        <v>4606700</v>
+      </c>
+      <c r="K49" s="3">
         <v>4629400</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1161600</v>
+        <v>1094700</v>
       </c>
       <c r="E52" s="3">
-        <v>1393600</v>
+        <v>817900</v>
       </c>
       <c r="F52" s="3">
-        <v>1652500</v>
+        <v>1393200</v>
       </c>
       <c r="G52" s="3">
-        <v>693700</v>
+        <v>1600800</v>
       </c>
       <c r="H52" s="3">
-        <v>420200</v>
+        <v>672000</v>
       </c>
       <c r="I52" s="3">
-        <v>98300</v>
+        <v>407100</v>
       </c>
       <c r="J52" s="3">
+        <v>95300</v>
+      </c>
+      <c r="K52" s="3">
         <v>143700</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23423300</v>
+        <v>23753700</v>
       </c>
       <c r="E54" s="3">
-        <v>21773200</v>
+        <v>22691000</v>
       </c>
       <c r="F54" s="3">
-        <v>22423900</v>
+        <v>22185600</v>
       </c>
       <c r="G54" s="3">
-        <v>20375000</v>
+        <v>21722700</v>
       </c>
       <c r="H54" s="3">
-        <v>18131000</v>
+        <v>19737900</v>
       </c>
       <c r="I54" s="3">
-        <v>15071100</v>
+        <v>17564100</v>
       </c>
       <c r="J54" s="3">
+        <v>14599900</v>
+      </c>
+      <c r="K54" s="3">
         <v>14106200</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2251700</v>
+        <v>2271300</v>
       </c>
       <c r="E57" s="3">
-        <v>2138000</v>
+        <v>2181300</v>
       </c>
       <c r="F57" s="3">
-        <v>2080400</v>
+        <v>2071100</v>
       </c>
       <c r="G57" s="3">
-        <v>1980500</v>
+        <v>2015300</v>
       </c>
       <c r="H57" s="3">
-        <v>1800700</v>
+        <v>1918600</v>
       </c>
       <c r="I57" s="3">
-        <v>1640200</v>
+        <v>1744400</v>
       </c>
       <c r="J57" s="3">
+        <v>1588900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1601800</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2571300</v>
+        <v>2348000</v>
       </c>
       <c r="E58" s="3">
-        <v>1245300</v>
+        <v>2490900</v>
       </c>
       <c r="F58" s="3">
-        <v>1382800</v>
+        <v>1206400</v>
       </c>
       <c r="G58" s="3">
-        <v>1386700</v>
+        <v>1339600</v>
       </c>
       <c r="H58" s="3">
-        <v>1398200</v>
+        <v>1343300</v>
       </c>
       <c r="I58" s="3">
-        <v>267300</v>
+        <v>1354500</v>
       </c>
       <c r="J58" s="3">
+        <v>259000</v>
+      </c>
+      <c r="K58" s="3">
         <v>43800</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>733700</v>
+        <v>468100</v>
       </c>
       <c r="E59" s="3">
-        <v>544700</v>
+        <v>710700</v>
       </c>
       <c r="F59" s="3">
-        <v>391000</v>
+        <v>964500</v>
       </c>
       <c r="G59" s="3">
-        <v>412500</v>
+        <v>378800</v>
       </c>
       <c r="H59" s="3">
-        <v>339600</v>
+        <v>399600</v>
       </c>
       <c r="I59" s="3">
-        <v>398700</v>
+        <v>328900</v>
       </c>
       <c r="J59" s="3">
+        <v>386200</v>
+      </c>
+      <c r="K59" s="3">
         <v>312700</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5287700</v>
+        <v>5087400</v>
       </c>
       <c r="E60" s="3">
-        <v>3928000</v>
+        <v>5122400</v>
       </c>
       <c r="F60" s="3">
-        <v>3854200</v>
+        <v>3869100</v>
       </c>
       <c r="G60" s="3">
-        <v>3779700</v>
+        <v>3733700</v>
       </c>
       <c r="H60" s="3">
-        <v>3538500</v>
+        <v>3661500</v>
       </c>
       <c r="I60" s="3">
-        <v>2306200</v>
+        <v>3427800</v>
       </c>
       <c r="J60" s="3">
+        <v>2234100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1958200</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9750400</v>
+        <v>9965000</v>
       </c>
       <c r="E61" s="3">
-        <v>11777000</v>
+        <v>9445500</v>
       </c>
       <c r="F61" s="3">
-        <v>12191800</v>
+        <v>11408700</v>
       </c>
       <c r="G61" s="3">
-        <v>10620000</v>
+        <v>11810600</v>
       </c>
       <c r="H61" s="3">
-        <v>9351700</v>
+        <v>10288000</v>
       </c>
       <c r="I61" s="3">
-        <v>8021100</v>
+        <v>9059300</v>
       </c>
       <c r="J61" s="3">
+        <v>7770300</v>
+      </c>
+      <c r="K61" s="3">
         <v>7708400</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3097500</v>
+        <v>2614400</v>
       </c>
       <c r="E62" s="3">
-        <v>2020400</v>
+        <v>2544500</v>
       </c>
       <c r="F62" s="3">
-        <v>2048100</v>
+        <v>2649400</v>
       </c>
       <c r="G62" s="3">
-        <v>1764600</v>
+        <v>1984100</v>
       </c>
       <c r="H62" s="3">
-        <v>1654000</v>
+        <v>1709500</v>
       </c>
       <c r="I62" s="3">
-        <v>1849100</v>
+        <v>1602300</v>
       </c>
       <c r="J62" s="3">
+        <v>1791300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1695500</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17664700</v>
+        <v>17666800</v>
       </c>
       <c r="E66" s="3">
-        <v>17725400</v>
+        <v>17112400</v>
       </c>
       <c r="F66" s="3">
-        <v>18094100</v>
+        <v>17509000</v>
       </c>
       <c r="G66" s="3">
-        <v>16164300</v>
+        <v>17528400</v>
       </c>
       <c r="H66" s="3">
-        <v>14544100</v>
+        <v>15658900</v>
       </c>
       <c r="I66" s="3">
-        <v>12176400</v>
+        <v>14089400</v>
       </c>
       <c r="J66" s="3">
+        <v>11795700</v>
+      </c>
+      <c r="K66" s="3">
         <v>11362100</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4637000</v>
+        <v>5824900</v>
       </c>
       <c r="E72" s="3">
-        <v>3755900</v>
+        <v>5270500</v>
       </c>
       <c r="F72" s="3">
-        <v>3896500</v>
+        <v>3645900</v>
       </c>
       <c r="G72" s="3">
-        <v>3758900</v>
+        <v>3799200</v>
       </c>
       <c r="H72" s="3">
-        <v>3301100</v>
+        <v>3641400</v>
       </c>
       <c r="I72" s="3">
-        <v>2526700</v>
+        <v>3197900</v>
       </c>
       <c r="J72" s="3">
+        <v>2447700</v>
+      </c>
+      <c r="K72" s="3">
         <v>2209400</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5758700</v>
+        <v>6086900</v>
       </c>
       <c r="E76" s="3">
-        <v>4047800</v>
+        <v>5578600</v>
       </c>
       <c r="F76" s="3">
-        <v>4329700</v>
+        <v>4676600</v>
       </c>
       <c r="G76" s="3">
-        <v>4210700</v>
+        <v>4194400</v>
       </c>
       <c r="H76" s="3">
-        <v>3586900</v>
+        <v>4079000</v>
       </c>
       <c r="I76" s="3">
-        <v>2894700</v>
+        <v>3474700</v>
       </c>
       <c r="J76" s="3">
+        <v>2804200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2744100</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1314400</v>
+        <v>1532300</v>
       </c>
       <c r="E81" s="3">
-        <v>641500</v>
+        <v>1373100</v>
       </c>
       <c r="F81" s="3">
-        <v>1031000</v>
+        <v>621400</v>
       </c>
       <c r="G81" s="3">
-        <v>1030200</v>
+        <v>998700</v>
       </c>
       <c r="H81" s="3">
-        <v>1282200</v>
+        <v>998000</v>
       </c>
       <c r="I81" s="3">
-        <v>1300600</v>
+        <v>1242100</v>
       </c>
       <c r="J81" s="3">
+        <v>1259900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1200700</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1694700</v>
+        <v>1688600</v>
       </c>
       <c r="E83" s="3">
-        <v>1803000</v>
+        <v>1641700</v>
       </c>
       <c r="F83" s="3">
-        <v>1816100</v>
+        <v>1746700</v>
       </c>
       <c r="G83" s="3">
-        <v>1697800</v>
+        <v>1759300</v>
       </c>
       <c r="H83" s="3">
-        <v>1498000</v>
+        <v>1644700</v>
       </c>
       <c r="I83" s="3">
-        <v>1453500</v>
+        <v>1451200</v>
       </c>
       <c r="J83" s="3">
+        <v>1408000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1402800</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3025300</v>
+        <v>3191200</v>
       </c>
       <c r="E89" s="3">
-        <v>3039900</v>
+        <v>2930700</v>
       </c>
       <c r="F89" s="3">
-        <v>2878600</v>
+        <v>2944800</v>
       </c>
       <c r="G89" s="3">
-        <v>2840900</v>
+        <v>2788600</v>
       </c>
       <c r="H89" s="3">
-        <v>3065200</v>
+        <v>2752100</v>
       </c>
       <c r="I89" s="3">
-        <v>2628100</v>
+        <v>2969400</v>
       </c>
       <c r="J89" s="3">
+        <v>2545900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2912400</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1916700</v>
+        <v>-2076300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1842200</v>
+        <v>-1812900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1923600</v>
+        <v>-1750400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1995100</v>
+        <v>-1815900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1773800</v>
+        <v>-1760800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1714700</v>
+        <v>-1667000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1594100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1677000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2020400</v>
+        <v>-2191000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1886800</v>
+        <v>-1957300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2893900</v>
+        <v>-1827800</v>
       </c>
       <c r="G94" s="3">
-        <v>-4571700</v>
+        <v>-2803400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2668100</v>
+        <v>-4428800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2177200</v>
+        <v>-2584600</v>
       </c>
       <c r="J94" s="3">
+        <v>-2109100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2174900</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-759000</v>
+        <v>-735300</v>
       </c>
       <c r="E96" s="3">
-        <v>-759000</v>
+        <v>-735300</v>
       </c>
       <c r="F96" s="3">
-        <v>-750600</v>
+        <v>-735300</v>
       </c>
       <c r="G96" s="3">
-        <v>-714500</v>
+        <v>-727100</v>
       </c>
       <c r="H96" s="3">
-        <v>-673000</v>
+        <v>-692100</v>
       </c>
       <c r="I96" s="3">
-        <v>-616900</v>
+        <v>-651900</v>
       </c>
       <c r="J96" s="3">
+        <v>-597600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-582300</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,36 +3210,42 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-954900</v>
+        <v>-694300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1216100</v>
+        <v>-925100</v>
       </c>
       <c r="F100" s="3">
-        <v>-111400</v>
+        <v>-1178100</v>
       </c>
       <c r="G100" s="3">
-        <v>98300</v>
+        <v>-107900</v>
       </c>
       <c r="H100" s="3">
-        <v>1206900</v>
+        <v>95300</v>
       </c>
       <c r="I100" s="3">
-        <v>-243500</v>
+        <v>1169200</v>
       </c>
       <c r="J100" s="3">
+        <v>-235900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-746700</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2987,34 +3270,40 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>49900</v>
+        <v>305900</v>
       </c>
       <c r="E102" s="3">
-        <v>-63000</v>
+        <v>48400</v>
       </c>
       <c r="F102" s="3">
-        <v>-126800</v>
+        <v>-61000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1632500</v>
+        <v>-122800</v>
       </c>
       <c r="H102" s="3">
-        <v>1604100</v>
+        <v>-1581400</v>
       </c>
       <c r="I102" s="3">
-        <v>207400</v>
+        <v>1553900</v>
       </c>
       <c r="J102" s="3">
+        <v>200900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-9200</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/RCI_YR_FIN.xlsx
+++ b/Financials/Yearly/RCI_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ED116E-6476-4B06-BCAA-1D18F4C9A00E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="RCI" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>RCI</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11234600</v>
+        <v>11364100</v>
       </c>
       <c r="E8" s="3">
-        <v>10693600</v>
+        <v>10816800</v>
       </c>
       <c r="F8" s="3">
-        <v>10197200</v>
+        <v>10314700</v>
       </c>
       <c r="G8" s="3">
-        <v>9982800</v>
+        <v>10097900</v>
       </c>
       <c r="H8" s="3">
-        <v>9563100</v>
+        <v>9673400</v>
       </c>
       <c r="I8" s="3">
-        <v>9455900</v>
+        <v>9564900</v>
       </c>
       <c r="J8" s="3">
-        <v>9292200</v>
+        <v>9399300</v>
       </c>
       <c r="K8" s="3">
         <v>9484600</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6782000</v>
+        <v>6860200</v>
       </c>
       <c r="E9" s="3">
-        <v>6598900</v>
+        <v>6675000</v>
       </c>
       <c r="F9" s="3">
-        <v>6453000</v>
+        <v>6527400</v>
       </c>
       <c r="G9" s="3">
-        <v>6278900</v>
+        <v>6351300</v>
       </c>
       <c r="H9" s="3">
-        <v>5855400</v>
+        <v>5923000</v>
       </c>
       <c r="I9" s="3">
-        <v>5802600</v>
+        <v>5869500</v>
       </c>
       <c r="J9" s="3">
-        <v>5752000</v>
+        <v>5818300</v>
       </c>
       <c r="K9" s="3">
         <v>1117000</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4452600</v>
+        <v>4503900</v>
       </c>
       <c r="E10" s="3">
-        <v>4094600</v>
+        <v>4141900</v>
       </c>
       <c r="F10" s="3">
-        <v>3744100</v>
+        <v>3787300</v>
       </c>
       <c r="G10" s="3">
-        <v>3703900</v>
+        <v>3746600</v>
       </c>
       <c r="H10" s="3">
-        <v>3707700</v>
+        <v>3750400</v>
       </c>
       <c r="I10" s="3">
-        <v>3653300</v>
+        <v>3695400</v>
       </c>
       <c r="J10" s="3">
-        <v>3540200</v>
+        <v>3581000</v>
       </c>
       <c r="K10" s="3">
         <v>8367600</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,7 +813,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,7 +843,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,67 +873,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>177100</v>
+        <v>179200</v>
       </c>
       <c r="E14" s="3">
-        <v>113100</v>
+        <v>114400</v>
       </c>
       <c r="F14" s="3">
-        <v>479300</v>
+        <v>484800</v>
       </c>
       <c r="G14" s="3">
-        <v>115400</v>
+        <v>116700</v>
       </c>
       <c r="H14" s="3">
-        <v>150300</v>
+        <v>152100</v>
       </c>
       <c r="I14" s="3">
-        <v>63300</v>
+        <v>64000</v>
       </c>
       <c r="J14" s="3">
-        <v>196500</v>
+        <v>198700</v>
       </c>
       <c r="K14" s="3">
         <v>119100</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1645400</v>
+        <v>1664400</v>
       </c>
       <c r="E15" s="3">
-        <v>1594100</v>
+        <v>1612500</v>
       </c>
       <c r="F15" s="3">
-        <v>1693800</v>
+        <v>1713400</v>
       </c>
       <c r="G15" s="3">
-        <v>1694600</v>
+        <v>1714100</v>
       </c>
       <c r="H15" s="3">
-        <v>1595600</v>
+        <v>1614000</v>
       </c>
       <c r="I15" s="3">
-        <v>1412500</v>
+        <v>1428800</v>
       </c>
       <c r="J15" s="3">
-        <v>1353700</v>
+        <v>1369300</v>
       </c>
       <c r="K15" s="3">
         <v>1339000</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8592600</v>
+        <v>8691700</v>
       </c>
       <c r="E17" s="3">
-        <v>8269700</v>
+        <v>8365000</v>
       </c>
       <c r="F17" s="3">
-        <v>8626100</v>
+        <v>8725600</v>
       </c>
       <c r="G17" s="3">
-        <v>8006200</v>
+        <v>8098500</v>
       </c>
       <c r="H17" s="3">
-        <v>7601400</v>
+        <v>7689000</v>
       </c>
       <c r="I17" s="3">
-        <v>7278400</v>
+        <v>7362300</v>
       </c>
       <c r="J17" s="3">
-        <v>7233700</v>
+        <v>7317100</v>
       </c>
       <c r="K17" s="3">
         <v>7359600</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2641900</v>
+        <v>2672400</v>
       </c>
       <c r="E18" s="3">
-        <v>2423900</v>
+        <v>2451800</v>
       </c>
       <c r="F18" s="3">
-        <v>1571000</v>
+        <v>1589100</v>
       </c>
       <c r="G18" s="3">
-        <v>1976600</v>
+        <v>1999400</v>
       </c>
       <c r="H18" s="3">
-        <v>1961700</v>
+        <v>1984400</v>
       </c>
       <c r="I18" s="3">
-        <v>2177600</v>
+        <v>2202700</v>
       </c>
       <c r="J18" s="3">
-        <v>2058500</v>
+        <v>2082200</v>
       </c>
       <c r="K18" s="3">
         <v>2124900</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-32700</v>
+        <v>-33100</v>
       </c>
       <c r="E20" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="F20" s="3">
-        <v>-157800</v>
+        <v>-159600</v>
       </c>
       <c r="G20" s="3">
-        <v>-68500</v>
+        <v>-69300</v>
       </c>
       <c r="H20" s="3">
-        <v>-15600</v>
+        <v>-15800</v>
       </c>
       <c r="I20" s="3">
-        <v>44700</v>
+        <v>45200</v>
       </c>
       <c r="J20" s="3">
-        <v>186800</v>
+        <v>189000</v>
       </c>
       <c r="K20" s="3">
         <v>12300</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4301400</v>
+        <v>4348100</v>
       </c>
       <c r="E21" s="3">
-        <v>4065300</v>
+        <v>4109500</v>
       </c>
       <c r="F21" s="3">
-        <v>3163600</v>
+        <v>3197100</v>
       </c>
       <c r="G21" s="3">
-        <v>3671200</v>
+        <v>3710600</v>
       </c>
       <c r="H21" s="3">
-        <v>3594300</v>
+        <v>3633000</v>
       </c>
       <c r="I21" s="3">
-        <v>3676500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3656300</v>
+        <v>3716400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>3546700</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>512800</v>
+        <v>518700</v>
       </c>
       <c r="E22" s="3">
-        <v>537300</v>
+        <v>543500</v>
       </c>
       <c r="F22" s="3">
-        <v>550700</v>
+        <v>557100</v>
       </c>
       <c r="G22" s="3">
-        <v>554400</v>
+        <v>560800</v>
       </c>
       <c r="H22" s="3">
-        <v>571600</v>
+        <v>578100</v>
       </c>
       <c r="I22" s="3">
-        <v>536600</v>
+        <v>542800</v>
       </c>
       <c r="J22" s="3">
-        <v>500100</v>
+        <v>505900</v>
       </c>
       <c r="K22" s="3">
         <v>497000</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2096400</v>
+        <v>2120600</v>
       </c>
       <c r="E23" s="3">
-        <v>1882900</v>
+        <v>1904600</v>
       </c>
       <c r="F23" s="3">
-        <v>862500</v>
+        <v>872500</v>
       </c>
       <c r="G23" s="3">
-        <v>1353700</v>
+        <v>1369300</v>
       </c>
       <c r="H23" s="3">
-        <v>1374600</v>
+        <v>1390400</v>
       </c>
       <c r="I23" s="3">
-        <v>1685600</v>
+        <v>1705100</v>
       </c>
       <c r="J23" s="3">
-        <v>1745200</v>
+        <v>1765300</v>
       </c>
       <c r="K23" s="3">
         <v>1640200</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>564100</v>
+        <v>570600</v>
       </c>
       <c r="E24" s="3">
-        <v>509800</v>
+        <v>515700</v>
       </c>
       <c r="F24" s="3">
-        <v>241100</v>
+        <v>243900</v>
       </c>
       <c r="G24" s="3">
-        <v>355000</v>
+        <v>359100</v>
       </c>
       <c r="H24" s="3">
-        <v>376600</v>
+        <v>380900</v>
       </c>
       <c r="I24" s="3">
-        <v>443500</v>
+        <v>448700</v>
       </c>
       <c r="J24" s="3">
-        <v>461400</v>
+        <v>466700</v>
       </c>
       <c r="K24" s="3">
         <v>418700</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1532300</v>
+        <v>1550000</v>
       </c>
       <c r="E26" s="3">
-        <v>1373100</v>
+        <v>1388900</v>
       </c>
       <c r="F26" s="3">
-        <v>621400</v>
+        <v>628600</v>
       </c>
       <c r="G26" s="3">
-        <v>998700</v>
+        <v>1010200</v>
       </c>
       <c r="H26" s="3">
-        <v>998000</v>
+        <v>1009500</v>
       </c>
       <c r="I26" s="3">
-        <v>1242100</v>
+        <v>1256400</v>
       </c>
       <c r="J26" s="3">
-        <v>1283800</v>
+        <v>1298600</v>
       </c>
       <c r="K26" s="3">
         <v>1221500</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1532300</v>
+        <v>1550000</v>
       </c>
       <c r="E27" s="3">
-        <v>1373100</v>
+        <v>1388900</v>
       </c>
       <c r="F27" s="3">
-        <v>621400</v>
+        <v>628600</v>
       </c>
       <c r="G27" s="3">
-        <v>998700</v>
+        <v>1010200</v>
       </c>
       <c r="H27" s="3">
-        <v>998000</v>
+        <v>1009500</v>
       </c>
       <c r="I27" s="3">
-        <v>1242100</v>
+        <v>1256400</v>
       </c>
       <c r="J27" s="3">
-        <v>1283800</v>
+        <v>1298600</v>
       </c>
       <c r="K27" s="3">
         <v>1221500</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1346,14 +1311,14 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-23800</v>
+        <v>-24100</v>
       </c>
       <c r="K29" s="3">
         <v>-20700</v>
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>32700</v>
+        <v>33100</v>
       </c>
       <c r="E32" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F32" s="3">
-        <v>157800</v>
+        <v>159600</v>
       </c>
       <c r="G32" s="3">
-        <v>68500</v>
+        <v>69300</v>
       </c>
       <c r="H32" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="I32" s="3">
-        <v>-44700</v>
+        <v>-45200</v>
       </c>
       <c r="J32" s="3">
-        <v>-186800</v>
+        <v>-189000</v>
       </c>
       <c r="K32" s="3">
         <v>-12300</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1532300</v>
+        <v>1550000</v>
       </c>
       <c r="E33" s="3">
-        <v>1373100</v>
+        <v>1388900</v>
       </c>
       <c r="F33" s="3">
-        <v>621400</v>
+        <v>628600</v>
       </c>
       <c r="G33" s="3">
-        <v>998700</v>
+        <v>1010200</v>
       </c>
       <c r="H33" s="3">
-        <v>998000</v>
+        <v>1009500</v>
       </c>
       <c r="I33" s="3">
-        <v>1242100</v>
+        <v>1256400</v>
       </c>
       <c r="J33" s="3">
-        <v>1259900</v>
+        <v>1274500</v>
       </c>
       <c r="K33" s="3">
         <v>1200700</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1532300</v>
+        <v>1550000</v>
       </c>
       <c r="E35" s="3">
-        <v>1373100</v>
+        <v>1388900</v>
       </c>
       <c r="F35" s="3">
-        <v>621400</v>
+        <v>628600</v>
       </c>
       <c r="G35" s="3">
-        <v>998700</v>
+        <v>1010200</v>
       </c>
       <c r="H35" s="3">
-        <v>998000</v>
+        <v>1009500</v>
       </c>
       <c r="I35" s="3">
-        <v>1242100</v>
+        <v>1256400</v>
       </c>
       <c r="J35" s="3">
-        <v>1259900</v>
+        <v>1274500</v>
       </c>
       <c r="K35" s="3">
         <v>1200700</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,12 +1561,12 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>301400</v>
+        <v>304900</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1610,23 +1575,23 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="H41" s="3">
-        <v>131000</v>
+        <v>132500</v>
       </c>
       <c r="I41" s="3">
-        <v>1712400</v>
+        <v>1732200</v>
       </c>
       <c r="J41" s="3">
-        <v>158500</v>
+        <v>160300</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1656,217 +1621,217 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2464100</v>
+        <v>2492500</v>
       </c>
       <c r="E43" s="3">
-        <v>2124700</v>
+        <v>2149200</v>
       </c>
       <c r="F43" s="3">
-        <v>3435300</v>
+        <v>3474900</v>
       </c>
       <c r="G43" s="3">
-        <v>1333600</v>
+        <v>1349000</v>
       </c>
       <c r="H43" s="3">
-        <v>1184000</v>
+        <v>1197700</v>
       </c>
       <c r="I43" s="3">
-        <v>1140900</v>
+        <v>1154000</v>
       </c>
       <c r="J43" s="3">
-        <v>1172100</v>
+        <v>1185600</v>
       </c>
       <c r="K43" s="3">
         <v>1209200</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>346800</v>
+        <v>350800</v>
       </c>
       <c r="E44" s="3">
-        <v>556700</v>
+        <v>563100</v>
       </c>
       <c r="F44" s="3">
-        <v>336400</v>
+        <v>340300</v>
       </c>
       <c r="G44" s="3">
-        <v>236700</v>
+        <v>239400</v>
       </c>
       <c r="H44" s="3">
-        <v>186800</v>
+        <v>189000</v>
       </c>
       <c r="I44" s="3">
-        <v>205400</v>
+        <v>207800</v>
       </c>
       <c r="J44" s="3">
-        <v>218100</v>
+        <v>220600</v>
       </c>
       <c r="K44" s="3">
         <v>158300</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>525400</v>
+        <v>531500</v>
       </c>
       <c r="E45" s="3">
-        <v>621400</v>
+        <v>628600</v>
       </c>
       <c r="F45" s="3">
-        <v>378100</v>
+        <v>382400</v>
       </c>
       <c r="G45" s="3">
-        <v>372800</v>
+        <v>377100</v>
       </c>
       <c r="H45" s="3">
-        <v>243400</v>
+        <v>246200</v>
       </c>
       <c r="I45" s="3">
-        <v>157000</v>
+        <v>158800</v>
       </c>
       <c r="J45" s="3">
-        <v>104200</v>
+        <v>105400</v>
       </c>
       <c r="K45" s="3">
         <v>106000</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3637700</v>
+        <v>3679600</v>
       </c>
       <c r="E46" s="3">
-        <v>3069900</v>
+        <v>3105300</v>
       </c>
       <c r="F46" s="3">
-        <v>2699200</v>
+        <v>2730400</v>
       </c>
       <c r="G46" s="3">
-        <v>1951300</v>
+        <v>1973800</v>
       </c>
       <c r="H46" s="3">
-        <v>1745200</v>
+        <v>1765300</v>
       </c>
       <c r="I46" s="3">
-        <v>3215700</v>
+        <v>3252800</v>
       </c>
       <c r="J46" s="3">
-        <v>1652900</v>
+        <v>1671900</v>
       </c>
       <c r="K46" s="3">
         <v>1468900</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1986300</v>
+        <v>2009200</v>
       </c>
       <c r="E47" s="3">
-        <v>2213300</v>
+        <v>2238800</v>
       </c>
       <c r="F47" s="3">
-        <v>3499300</v>
+        <v>3539600</v>
       </c>
       <c r="G47" s="3">
-        <v>1690100</v>
+        <v>1709600</v>
       </c>
       <c r="H47" s="3">
-        <v>1412500</v>
+        <v>1428800</v>
       </c>
       <c r="I47" s="3">
-        <v>1128200</v>
+        <v>1141200</v>
       </c>
       <c r="J47" s="3">
-        <v>1118500</v>
+        <v>1131400</v>
       </c>
       <c r="K47" s="3">
         <v>862700</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8766800</v>
+        <v>8867900</v>
       </c>
       <c r="E48" s="3">
-        <v>8292700</v>
+        <v>8388300</v>
       </c>
       <c r="F48" s="3">
-        <v>7999500</v>
+        <v>8091700</v>
       </c>
       <c r="G48" s="3">
-        <v>8184100</v>
+        <v>8278400</v>
       </c>
       <c r="H48" s="3">
-        <v>7929600</v>
+        <v>8021000</v>
       </c>
       <c r="I48" s="3">
-        <v>7631900</v>
+        <v>7719900</v>
       </c>
       <c r="J48" s="3">
-        <v>7126600</v>
+        <v>7208700</v>
       </c>
       <c r="K48" s="3">
         <v>15063500</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8268200</v>
+        <v>8363500</v>
       </c>
       <c r="E49" s="3">
-        <v>8297200</v>
+        <v>8392900</v>
       </c>
       <c r="F49" s="3">
-        <v>8212400</v>
+        <v>8307000</v>
       </c>
       <c r="G49" s="3">
-        <v>13071300</v>
+        <v>13222000</v>
       </c>
       <c r="H49" s="3">
-        <v>7978700</v>
+        <v>8070700</v>
       </c>
       <c r="I49" s="3">
-        <v>5181200</v>
+        <v>5240900</v>
       </c>
       <c r="J49" s="3">
-        <v>4606700</v>
+        <v>4659800</v>
       </c>
       <c r="K49" s="3">
         <v>4629400</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1094700</v>
+        <v>1107400</v>
       </c>
       <c r="E52" s="3">
-        <v>817900</v>
+        <v>827300</v>
       </c>
       <c r="F52" s="3">
-        <v>1393200</v>
+        <v>1409200</v>
       </c>
       <c r="G52" s="3">
-        <v>1600800</v>
+        <v>1619300</v>
       </c>
       <c r="H52" s="3">
-        <v>672000</v>
+        <v>679800</v>
       </c>
       <c r="I52" s="3">
-        <v>407100</v>
+        <v>411800</v>
       </c>
       <c r="J52" s="3">
-        <v>95300</v>
+        <v>96400</v>
       </c>
       <c r="K52" s="3">
         <v>143700</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23753700</v>
+        <v>24027600</v>
       </c>
       <c r="E54" s="3">
-        <v>22691000</v>
+        <v>22952600</v>
       </c>
       <c r="F54" s="3">
-        <v>22185600</v>
+        <v>22441400</v>
       </c>
       <c r="G54" s="3">
-        <v>21722700</v>
+        <v>21973200</v>
       </c>
       <c r="H54" s="3">
-        <v>19737900</v>
+        <v>19965500</v>
       </c>
       <c r="I54" s="3">
-        <v>17564100</v>
+        <v>17766600</v>
       </c>
       <c r="J54" s="3">
-        <v>14599900</v>
+        <v>14768200</v>
       </c>
       <c r="K54" s="3">
         <v>14106200</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2271300</v>
+        <v>2297500</v>
       </c>
       <c r="E57" s="3">
-        <v>2181300</v>
+        <v>2206400</v>
       </c>
       <c r="F57" s="3">
-        <v>2071100</v>
+        <v>2095000</v>
       </c>
       <c r="G57" s="3">
-        <v>2015300</v>
+        <v>2038600</v>
       </c>
       <c r="H57" s="3">
-        <v>1918600</v>
+        <v>1940700</v>
       </c>
       <c r="I57" s="3">
-        <v>1744400</v>
+        <v>1764500</v>
       </c>
       <c r="J57" s="3">
-        <v>1588900</v>
+        <v>1607200</v>
       </c>
       <c r="K57" s="3">
         <v>1601800</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2348000</v>
+        <v>2375100</v>
       </c>
       <c r="E58" s="3">
-        <v>2490900</v>
+        <v>2519600</v>
       </c>
       <c r="F58" s="3">
-        <v>1206400</v>
+        <v>1220300</v>
       </c>
       <c r="G58" s="3">
-        <v>1339600</v>
+        <v>1355000</v>
       </c>
       <c r="H58" s="3">
-        <v>1343300</v>
+        <v>1358800</v>
       </c>
       <c r="I58" s="3">
-        <v>1354500</v>
+        <v>1370100</v>
       </c>
       <c r="J58" s="3">
-        <v>259000</v>
+        <v>262000</v>
       </c>
       <c r="K58" s="3">
         <v>43800</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>468100</v>
+        <v>473500</v>
       </c>
       <c r="E59" s="3">
-        <v>710700</v>
+        <v>718900</v>
       </c>
       <c r="F59" s="3">
-        <v>964500</v>
+        <v>975600</v>
       </c>
       <c r="G59" s="3">
-        <v>378800</v>
+        <v>383200</v>
       </c>
       <c r="H59" s="3">
-        <v>399600</v>
+        <v>404200</v>
       </c>
       <c r="I59" s="3">
-        <v>328900</v>
+        <v>332700</v>
       </c>
       <c r="J59" s="3">
-        <v>386200</v>
+        <v>390700</v>
       </c>
       <c r="K59" s="3">
         <v>312700</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5087400</v>
+        <v>5146100</v>
       </c>
       <c r="E60" s="3">
-        <v>5122400</v>
+        <v>5181500</v>
       </c>
       <c r="F60" s="3">
-        <v>3869100</v>
+        <v>3913800</v>
       </c>
       <c r="G60" s="3">
-        <v>3733700</v>
+        <v>3776700</v>
       </c>
       <c r="H60" s="3">
-        <v>3661500</v>
+        <v>3703700</v>
       </c>
       <c r="I60" s="3">
-        <v>3427800</v>
+        <v>3467400</v>
       </c>
       <c r="J60" s="3">
-        <v>2234100</v>
+        <v>2259900</v>
       </c>
       <c r="K60" s="3">
         <v>1958200</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9965000</v>
+        <v>10079900</v>
       </c>
       <c r="E61" s="3">
-        <v>9445500</v>
+        <v>9554400</v>
       </c>
       <c r="F61" s="3">
-        <v>11408700</v>
+        <v>11540300</v>
       </c>
       <c r="G61" s="3">
-        <v>11810600</v>
+        <v>11946800</v>
       </c>
       <c r="H61" s="3">
-        <v>10288000</v>
+        <v>10406600</v>
       </c>
       <c r="I61" s="3">
-        <v>9059300</v>
+        <v>9163700</v>
       </c>
       <c r="J61" s="3">
-        <v>7770300</v>
+        <v>7859900</v>
       </c>
       <c r="K61" s="3">
         <v>7708400</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2614400</v>
+        <v>2644600</v>
       </c>
       <c r="E62" s="3">
-        <v>2544500</v>
+        <v>2573800</v>
       </c>
       <c r="F62" s="3">
-        <v>2649400</v>
+        <v>2679900</v>
       </c>
       <c r="G62" s="3">
-        <v>1984100</v>
+        <v>2006900</v>
       </c>
       <c r="H62" s="3">
-        <v>1709500</v>
+        <v>1729200</v>
       </c>
       <c r="I62" s="3">
-        <v>1602300</v>
+        <v>1620800</v>
       </c>
       <c r="J62" s="3">
-        <v>1791300</v>
+        <v>1812000</v>
       </c>
       <c r="K62" s="3">
         <v>1695500</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17666800</v>
+        <v>17870500</v>
       </c>
       <c r="E66" s="3">
-        <v>17112400</v>
+        <v>17309700</v>
       </c>
       <c r="F66" s="3">
-        <v>17509000</v>
+        <v>17710900</v>
       </c>
       <c r="G66" s="3">
-        <v>17528400</v>
+        <v>17730500</v>
       </c>
       <c r="H66" s="3">
-        <v>15658900</v>
+        <v>15839500</v>
       </c>
       <c r="I66" s="3">
-        <v>14089400</v>
+        <v>14251800</v>
       </c>
       <c r="J66" s="3">
-        <v>11795700</v>
+        <v>11931700</v>
       </c>
       <c r="K66" s="3">
         <v>11362100</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5824900</v>
+        <v>5892100</v>
       </c>
       <c r="E72" s="3">
-        <v>5270500</v>
+        <v>5331300</v>
       </c>
       <c r="F72" s="3">
-        <v>3645900</v>
+        <v>3687900</v>
       </c>
       <c r="G72" s="3">
-        <v>3799200</v>
+        <v>3843000</v>
       </c>
       <c r="H72" s="3">
-        <v>3641400</v>
+        <v>3683400</v>
       </c>
       <c r="I72" s="3">
-        <v>3197900</v>
+        <v>3234700</v>
       </c>
       <c r="J72" s="3">
-        <v>2447700</v>
+        <v>2475900</v>
       </c>
       <c r="K72" s="3">
         <v>2209400</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6086900</v>
+        <v>6157100</v>
       </c>
       <c r="E76" s="3">
-        <v>5578600</v>
+        <v>5642900</v>
       </c>
       <c r="F76" s="3">
-        <v>4676600</v>
+        <v>4730500</v>
       </c>
       <c r="G76" s="3">
-        <v>4194400</v>
+        <v>4242700</v>
       </c>
       <c r="H76" s="3">
-        <v>4079000</v>
+        <v>4126000</v>
       </c>
       <c r="I76" s="3">
-        <v>3474700</v>
+        <v>3514800</v>
       </c>
       <c r="J76" s="3">
-        <v>2804200</v>
+        <v>2836500</v>
       </c>
       <c r="K76" s="3">
         <v>2744100</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1532300</v>
+        <v>1550000</v>
       </c>
       <c r="E81" s="3">
-        <v>1373100</v>
+        <v>1388900</v>
       </c>
       <c r="F81" s="3">
-        <v>621400</v>
+        <v>628600</v>
       </c>
       <c r="G81" s="3">
-        <v>998700</v>
+        <v>1010200</v>
       </c>
       <c r="H81" s="3">
-        <v>998000</v>
+        <v>1009500</v>
       </c>
       <c r="I81" s="3">
-        <v>1242100</v>
+        <v>1256400</v>
       </c>
       <c r="J81" s="3">
-        <v>1259900</v>
+        <v>1274500</v>
       </c>
       <c r="K81" s="3">
         <v>1200700</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1688600</v>
+        <v>1708100</v>
       </c>
       <c r="E83" s="3">
-        <v>1641700</v>
+        <v>1660700</v>
       </c>
       <c r="F83" s="3">
-        <v>1746700</v>
+        <v>1766800</v>
       </c>
       <c r="G83" s="3">
-        <v>1759300</v>
+        <v>1779600</v>
       </c>
       <c r="H83" s="3">
-        <v>1644700</v>
+        <v>1663700</v>
       </c>
       <c r="I83" s="3">
-        <v>1451200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1408000</v>
+        <v>1467900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>1402800</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3191200</v>
+        <v>3228000</v>
       </c>
       <c r="E89" s="3">
-        <v>2930700</v>
+        <v>2964500</v>
       </c>
       <c r="F89" s="3">
-        <v>2944800</v>
+        <v>2978800</v>
       </c>
       <c r="G89" s="3">
-        <v>2788600</v>
+        <v>2820700</v>
       </c>
       <c r="H89" s="3">
-        <v>2752100</v>
+        <v>2783800</v>
       </c>
       <c r="I89" s="3">
-        <v>2969400</v>
+        <v>3003600</v>
       </c>
       <c r="J89" s="3">
-        <v>2545900</v>
+        <v>2575300</v>
       </c>
       <c r="K89" s="3">
         <v>2912400</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2076300</v>
+        <v>-2100300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1812900</v>
+        <v>-1833800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1750400</v>
+        <v>-1770600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1815900</v>
+        <v>-1836800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1760800</v>
+        <v>-1781100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1667000</v>
+        <v>-1686200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1594100</v>
+        <v>-1612500</v>
       </c>
       <c r="K91" s="3">
         <v>-1677000</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2191000</v>
+        <v>-2216200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1957300</v>
+        <v>-1979800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1827800</v>
+        <v>-1848900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2803400</v>
+        <v>-2835800</v>
       </c>
       <c r="H94" s="3">
-        <v>-4428800</v>
+        <v>-4479900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2584600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2109100</v>
+        <v>-2614400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-2174900</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-735300</v>
+        <v>-743800</v>
       </c>
       <c r="E96" s="3">
-        <v>-735300</v>
+        <v>-743800</v>
       </c>
       <c r="F96" s="3">
-        <v>-735300</v>
+        <v>-743800</v>
       </c>
       <c r="G96" s="3">
-        <v>-727100</v>
+        <v>-735500</v>
       </c>
       <c r="H96" s="3">
-        <v>-692100</v>
+        <v>-700100</v>
       </c>
       <c r="I96" s="3">
-        <v>-651900</v>
+        <v>-659400</v>
       </c>
       <c r="J96" s="3">
-        <v>-597600</v>
+        <v>-604500</v>
       </c>
       <c r="K96" s="3">
         <v>-582300</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,37 +3180,37 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-694300</v>
+        <v>-702400</v>
       </c>
       <c r="E100" s="3">
-        <v>-925100</v>
+        <v>-935700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1178100</v>
+        <v>-1191700</v>
       </c>
       <c r="G100" s="3">
-        <v>-107900</v>
+        <v>-109200</v>
       </c>
       <c r="H100" s="3">
-        <v>95300</v>
+        <v>96400</v>
       </c>
       <c r="I100" s="3">
-        <v>1169200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-235900</v>
+        <v>1182600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-746700</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3267,38 +3232,38 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>305900</v>
+        <v>309400</v>
       </c>
       <c r="E102" s="3">
-        <v>48400</v>
+        <v>48900</v>
       </c>
       <c r="F102" s="3">
-        <v>-61000</v>
+        <v>-61700</v>
       </c>
       <c r="G102" s="3">
-        <v>-122800</v>
+        <v>-124200</v>
       </c>
       <c r="H102" s="3">
-        <v>-1581400</v>
+        <v>-1599700</v>
       </c>
       <c r="I102" s="3">
-        <v>1553900</v>
+        <v>1571800</v>
       </c>
       <c r="J102" s="3">
-        <v>200900</v>
+        <v>203300</v>
       </c>
       <c r="K102" s="3">
         <v>-9200</v>
